--- a/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
+++ b/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12000"/>
+    <workbookView windowWidth="25160" windowHeight="10880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>需求板块</t>
   </si>
@@ -109,6 +109,142 @@
   </si>
   <si>
     <t>客服消息</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>优先级低，最后实现</t>
+  </si>
+  <si>
+    <t>需求页面</t>
+  </si>
+  <si>
+    <t>前台开发</t>
+  </si>
+  <si>
+    <t>后台开发</t>
+  </si>
+  <si>
+    <t>设及后台接口</t>
+  </si>
+  <si>
+    <t>微信登录</t>
+  </si>
+  <si>
+    <t>李建</t>
+  </si>
+  <si>
+    <t>1：判断是否是会员，插入会员信息（包括前三级推荐人）接口；2：local缓存是否存在购物车列表，若无，请求购物车列表接口；</t>
+  </si>
+  <si>
+    <t>getPhoneNumber，弹框获取手机号码，wx.getUserInfo获取微信昵称、微信头像，wx.login(),code2Session接口获取openId，session_key，unionid；wx.chooseAddress获取地址</t>
+  </si>
+  <si>
+    <t>轮播图查询</t>
+  </si>
+  <si>
+    <t>彬哥</t>
+  </si>
+  <si>
+    <t>1：查询店铺轮播图接口</t>
+  </si>
+  <si>
+    <t>优惠专区（领取优惠卷，获知店铺活动）</t>
+  </si>
+  <si>
+    <t>1：MetaData返回，MetaData接口</t>
+  </si>
+  <si>
+    <t>商品活动</t>
+  </si>
+  <si>
+    <t>1：查询商品活动接口</t>
+  </si>
+  <si>
+    <t>1：查询商品列表接口</t>
+  </si>
+  <si>
+    <t>商品详情页面（复杂页面）</t>
+  </si>
+  <si>
+    <t>1：查询商品轮播图片接口；2：查询商品详情图接口</t>
+  </si>
+  <si>
+    <t>购物车列表</t>
+  </si>
+  <si>
+    <t>1：离开小程序，保存购物车列表接口</t>
+  </si>
+  <si>
+    <r>
+      <t>订单详细页面（调用微信地址选则地址、订单商品、使用优惠、）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（未支付订单轮询自动关闭，放全局app.js中，待定）</t>
+    </r>
+  </si>
+  <si>
+    <t>1：订单提交接口（包括已支付、未支付）(后期超时未支付订单自动失效、如30分钟或者2小时未支付，订单失效)</t>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>我的页面</t>
+  </si>
+  <si>
+    <t>小风</t>
+  </si>
+  <si>
+    <t>1：今日推荐、今日收益、我的朋友、我的余额一个接口（进入我的页面查询收益接口）；</t>
+  </si>
+  <si>
+    <t>获利/推荐页面（通过点击今日推荐、今日收益、我的朋友、我的余额进入，此页面为一个组件）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：今日推荐列表、我的朋友列表 一个接口（通过时间条件不同查询）；2：今日收益列表、我的余额列表 一个接口（通过时间条件不同查询）；
+</t>
+  </si>
+  <si>
+    <t>订单详细页面</t>
+  </si>
+  <si>
+    <t>1：查询订单列表接口（包含订单信息，物流信息）；2：确定收货（更新订单状态）接口；</t>
+  </si>
+  <si>
+    <t>我的权益页面（会员拥有的优惠卷，试用品等可享出去供朋友领取）（优先级低）</t>
+  </si>
+  <si>
+    <t>通过memberId,eId,sId查询权益(优惠卷表)</t>
+  </si>
+  <si>
+    <t>支付模块（复杂模块）</t>
+  </si>
+  <si>
+    <r>
+      <t>1：支付成功生成获利表，确定收货更改获利状态（到账），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付成功更新出入库</t>
+    </r>
+  </si>
+  <si>
+    <t>图片上传储存模块（复杂模块）</t>
   </si>
 </sst>
 </file>
@@ -116,12 +252,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +274,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -146,7 +327,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,88 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -250,9 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,18 +433,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -304,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,15 +646,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,6 +660,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +700,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,179 +746,201 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1114,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1127,23 +1311,23 @@
     <col min="6" max="6" width="21.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="1" ht="17.5" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1154,7 +1338,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1162,12 +1346,12 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1176,21 +1360,21 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1212,7 +1396,7 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1223,7 +1407,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1237,7 +1421,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1250,7 +1434,7 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1290,14 +1474,322 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="50.2636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5909090909091" customWidth="1"/>
+    <col min="4" max="4" width="13.5181818181818" customWidth="1"/>
+    <col min="5" max="5" width="43.2454545454545" style="3" customWidth="1"/>
+    <col min="6" max="6" width="54.2181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="30" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="30" spans="2:5">
+      <c r="B17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
+      <c r="B34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="18" customHeight="1"/>
+    <row r="36" ht="18" customHeight="1"/>
+    <row r="37" ht="18" customHeight="1"/>
+    <row r="38" ht="18" customHeight="1"/>
+    <row r="39" ht="18" customHeight="1"/>
+    <row r="40" ht="18" customHeight="1"/>
+    <row r="41" ht="18" customHeight="1"/>
+    <row r="42" ht="18" customHeight="1"/>
+    <row r="43" ht="18" customHeight="1"/>
+    <row r="44" ht="18" customHeight="1"/>
+    <row r="45" ht="18" customHeight="1"/>
+    <row r="46" ht="18" customHeight="1"/>
+    <row r="47" ht="18" customHeight="1"/>
+    <row r="48" ht="18" customHeight="1"/>
+    <row r="49" ht="18" customHeight="1"/>
+    <row r="50" ht="18" customHeight="1"/>
+    <row r="51" ht="18" customHeight="1"/>
+    <row r="52" ht="18" customHeight="1"/>
+    <row r="53" ht="18" customHeight="1"/>
+    <row r="54" ht="18" customHeight="1"/>
+    <row r="55" ht="18" customHeight="1"/>
+    <row r="56" ht="18" customHeight="1"/>
+    <row r="57" ht="18" customHeight="1"/>
+    <row r="58" ht="18" customHeight="1"/>
+    <row r="59" ht="18" customHeight="1"/>
+    <row r="60" ht="18" customHeight="1"/>
+    <row r="61" ht="18" customHeight="1"/>
+    <row r="62" ht="18" customHeight="1"/>
+    <row r="63" ht="18" customHeight="1"/>
+    <row r="64" ht="18" customHeight="1"/>
+    <row r="65" ht="18" customHeight="1"/>
+    <row r="66" ht="18" customHeight="1"/>
+    <row r="67" ht="18" customHeight="1"/>
+    <row r="68" ht="18" customHeight="1"/>
+    <row r="69" ht="18" customHeight="1"/>
+    <row r="70" ht="18" customHeight="1"/>
+    <row r="71" ht="18" customHeight="1"/>
+    <row r="72" ht="18" customHeight="1"/>
+    <row r="73" ht="18" customHeight="1"/>
+    <row r="74" ht="18" customHeight="1"/>
+    <row r="75" ht="18" customHeight="1"/>
+    <row r="76" ht="18" customHeight="1"/>
+    <row r="77" ht="18" customHeight="1"/>
+    <row r="78" ht="18" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C15"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
+++ b/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25160" windowHeight="10880" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>需求板块</t>
   </si>
@@ -178,6 +178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>订单详细页面（调用微信地址选则地址、订单商品、使用优惠、）</t>
     </r>
     <r>
@@ -230,6 +237,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1：支付成功生成获利表，确定收货更改获利状态（到账），</t>
     </r>
     <r>
@@ -246,6 +260,9 @@
   <si>
     <t>图片上传储存模块（复杂模块）</t>
   </si>
+  <si>
+    <t>图片分辨率切割，图片上传，图片存储，图片访问</t>
+  </si>
 </sst>
 </file>
 
@@ -289,6 +306,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -298,12 +397,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,28 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,14 +428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,61 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
@@ -455,97 +472,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,85 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +663,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -667,39 +734,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -708,11 +742,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,21 +763,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,34 +783,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,98 +819,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,15 +929,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -929,15 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1311,23 +1313,23 @@
     <col min="6" max="6" width="21.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="17.5" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1338,7 +1340,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1346,12 +1348,12 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1360,7 +1362,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1374,7 +1376,7 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1396,7 +1398,7 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1407,7 +1409,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1421,7 +1423,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,7 +1436,7 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1476,8 +1478,8 @@
   <sheetPr/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1499,10 +1501,10 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1511,231 +1513,232 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="75" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" ht="75" spans="2:6">
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="E7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="7"/>
+      <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="7"/>
+      <c r="E15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="30" spans="2:5">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="2:5">
-      <c r="B34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" ht="18" customHeight="1"/>
     <row r="36" ht="18" customHeight="1"/>

--- a/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
+++ b/需求分析/2019年/3月版/2019年3月版本需求分析.xlsx
@@ -269,8 +269,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -314,14 +314,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +354,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,15 +374,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,18 +413,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,48 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,47 +663,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,20 +690,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +745,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -771,145 +771,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,7 +1479,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
